--- a/RESULTS/SET 1 [0..5] Single/030.0%/BE.xlsx
+++ b/RESULTS/SET 1 [0..5] Single/030.0%/BE.xlsx
@@ -17,9 +17,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>Feature index</t>
   </si>
@@ -89,178 +86,208 @@
     <t>Mallow Test</t>
   </si>
   <si>
+    <t>011155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
     <t>010155</t>
   </si>
   <si>
     <t>O-H</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>001101</t>
   </si>
   <si>
+    <t>040055</t>
+  </si>
+  <si>
+    <t>O-O</t>
+  </si>
+  <si>
+    <t>004100</t>
+  </si>
+  <si>
+    <t>050055</t>
+  </si>
+  <si>
+    <t>005100</t>
+  </si>
+  <si>
+    <t>080055</t>
+  </si>
+  <si>
+    <t>008100</t>
+  </si>
+  <si>
+    <t>090055</t>
+  </si>
+  <si>
+    <t>009100</t>
+  </si>
+  <si>
+    <t>110055</t>
+  </si>
+  <si>
+    <t>011100</t>
+  </si>
+  <si>
+    <t>120055</t>
+  </si>
+  <si>
+    <t>012100</t>
+  </si>
+  <si>
+    <t>060155</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
+    <t>040155</t>
+  </si>
+  <si>
+    <t>004101</t>
+  </si>
+  <si>
+    <t>030155</t>
+  </si>
+  <si>
+    <t>003101</t>
+  </si>
+  <si>
+    <t>051155</t>
+  </si>
+  <si>
+    <t>005111</t>
+  </si>
+  <si>
+    <t>031155</t>
+  </si>
+  <si>
+    <t>003111</t>
+  </si>
+  <si>
+    <t>151155</t>
+  </si>
+  <si>
+    <t>015111</t>
+  </si>
+  <si>
+    <t>060055</t>
+  </si>
+  <si>
+    <t>006100</t>
+  </si>
+  <si>
+    <t>070055</t>
+  </si>
+  <si>
+    <t>007100</t>
+  </si>
+  <si>
+    <t>070155</t>
+  </si>
+  <si>
+    <t>007101</t>
+  </si>
+  <si>
+    <t>021155</t>
+  </si>
+  <si>
+    <t>002111</t>
+  </si>
+  <si>
+    <t>100055</t>
+  </si>
+  <si>
+    <t>010100</t>
+  </si>
+  <si>
+    <t>130055</t>
+  </si>
+  <si>
+    <t>013100</t>
+  </si>
+  <si>
+    <t>100155</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>090155</t>
+  </si>
+  <si>
+    <t>009101</t>
+  </si>
+  <si>
+    <t>081155</t>
+  </si>
+  <si>
+    <t>008111</t>
+  </si>
+  <si>
+    <t>140055</t>
+  </si>
+  <si>
+    <t>014100</t>
+  </si>
+  <si>
+    <t>120155</t>
+  </si>
+  <si>
+    <t>012101</t>
+  </si>
+  <si>
     <t>030055</t>
   </si>
   <si>
-    <t>O-O</t>
-  </si>
-  <si>
     <t>003100</t>
   </si>
   <si>
-    <t>021155</t>
-  </si>
-  <si>
-    <t>H-H</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>090055</t>
-  </si>
-  <si>
-    <t>009100</t>
-  </si>
-  <si>
-    <t>051155</t>
-  </si>
-  <si>
-    <t>005111</t>
-  </si>
-  <si>
-    <t>110055</t>
-  </si>
-  <si>
-    <t>011100</t>
-  </si>
-  <si>
-    <t>061155</t>
-  </si>
-  <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>081155</t>
-  </si>
-  <si>
-    <t>008111</t>
-  </si>
-  <si>
-    <t>140055</t>
-  </si>
-  <si>
-    <t>014100</t>
-  </si>
-  <si>
-    <t>101155</t>
-  </si>
-  <si>
-    <t>010111</t>
-  </si>
-  <si>
-    <t>111155</t>
-  </si>
-  <si>
-    <t>011111</t>
-  </si>
-  <si>
-    <t>121155</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>131155</t>
-  </si>
-  <si>
-    <t>013111</t>
-  </si>
-  <si>
-    <t>141155</t>
-  </si>
-  <si>
-    <t>014111</t>
-  </si>
-  <si>
     <t>150155</t>
   </si>
   <si>
     <t>015101</t>
   </si>
   <si>
-    <t>091155</t>
-  </si>
-  <si>
-    <t>009111</t>
-  </si>
-  <si>
-    <t>130055</t>
-  </si>
-  <si>
-    <t>013100</t>
-  </si>
-  <si>
-    <t>011155</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>100055</t>
-  </si>
-  <si>
-    <t>010100</t>
-  </si>
-  <si>
-    <t>120055</t>
-  </si>
-  <si>
-    <t>012100</t>
-  </si>
-  <si>
-    <t>151155</t>
-  </si>
-  <si>
-    <t>015111</t>
+    <t>010055</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>140155</t>
+  </si>
+  <si>
+    <t>014101</t>
+  </si>
+  <si>
+    <t>130155</t>
+  </si>
+  <si>
+    <t>013101</t>
   </si>
   <si>
     <t>020155</t>
   </si>
   <si>
     <t>002101</t>
-  </si>
-  <si>
-    <t>010055</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
-    <t>150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
-    <t>070155</t>
-  </si>
-  <si>
-    <t>007101</t>
-  </si>
-  <si>
-    <t>041155</t>
-  </si>
-  <si>
-    <t>004111</t>
-  </si>
-  <si>
-    <t>080055</t>
-  </si>
-  <si>
-    <t>008100</t>
   </si>
 </sst>
 </file>
@@ -684,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -708,27 +735,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.12428965647544</v>
+        <v>0.09971045005243745</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.555687065858626e-07</v>
+        <v>3.142243721509757e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005962958213721295</v>
+        <v>0.0005605571979298595</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9261634206522319</v>
+        <v>0.9394042541223573</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9204544067851365</v>
+        <v>0.9347190160390344</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>6.529570638788574</v>
+        <v>67.48999716247084</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -737,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -746,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -755,13 +782,13 @@
         <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.276052380513879</v>
+        <v>-0.2227010958438649</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -780,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -789,7 +816,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -798,13 +825,13 @@
         <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.482779626064221</v>
+        <v>644.4488208068833</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -823,16 +850,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -847,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-3416.944046505679</v>
+        <v>-4354.02477686728</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -866,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -875,7 +902,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -884,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-881.9385689411797</v>
+        <v>571008.220213369</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -909,16 +936,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -933,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>31647.74976550844</v>
+        <v>-2451051.017921027</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -952,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -961,7 +988,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -970,13 +997,13 @@
         <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>5831.326433971662</v>
+        <v>16718346.47332054</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -995,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -1004,7 +1031,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1013,13 +1040,13 @@
         <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-85529.95347304853</v>
+        <v>-25901034.64073499</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1038,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -1047,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1056,13 +1083,13 @@
         <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-188191.1366107377</v>
+        <v>2.145618068678068</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1081,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -1090,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1099,13 +1126,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2042449.151395634</v>
+        <v>27846371.1911919</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1124,16 +1151,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1148,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-8510332.308781505</v>
+        <v>-2.42658799700439</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1167,16 +1194,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1191,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>16094543.75079252</v>
+        <v>1.176616467535496</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1210,16 +1237,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1234,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-15162219.22638906</v>
+        <v>0.5354602730367333</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1253,16 +1280,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1277,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>5776937.025467242</v>
+        <v>-0.2140909880399704</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1296,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -1320,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.764869909442496</v>
+        <v>-36.34853185340762</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1423,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1435,7 +1462,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1444,27 +1471,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06266770312714981</v>
+        <v>0.06313017800486435</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.426396492113589e-07</v>
+        <v>3.696527197729063e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006653116932771879</v>
+        <v>0.000607990723426687</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9080824690809215</v>
+        <v>0.9287153249221031</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9053656947680423</v>
+        <v>0.9266083887129042</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>44.92377853522002</v>
+        <v>106.5841120088022</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1476,10 +1503,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1488,7 +1515,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1497,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.121103997107219</v>
+        <v>-0.123738444842038</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1519,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1531,7 +1558,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1540,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2356399973463453</v>
+        <v>0.2475339346799014</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1559,22 +1586,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1583,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>18719.05401105232</v>
+        <v>59.19307187352123</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1602,22 +1629,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1626,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.04487960665192482</v>
+        <v>-0.02895212041317127</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1645,22 +1672,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1669,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>13.31077604438092</v>
+        <v>3.216289660496703</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1769,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -1793,27 +1820,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1167645485382395</v>
+        <v>0.06205311957821431</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.767355836236967e-07</v>
+        <v>3.929207643581548e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006904604142336451</v>
+        <v>0.0006268339208739065</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9010021858050227</v>
+        <v>0.9242282620405519</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8985757687904399</v>
+        <v>0.9223711116003693</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>62.9183979076224</v>
+        <v>125.3434093644512</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1822,13 +1849,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1837,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1846,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05719407991654085</v>
+        <v>-0.12252294018308</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1868,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1880,7 +1907,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1889,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2385276316752944</v>
+        <v>0.2502161760913879</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1908,22 +1935,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1932,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2241.947343453272</v>
+        <v>7356.631426103439</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1951,31 +1978,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-33.5292498834873</v>
+        <v>-0.009827812046578111</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1988,666 +2015,6 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.1307581078370947</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>6.145334512393598e-07</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0007839218400066168</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8723873977269266</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8698973957313545</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>138.5667897871149</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.06421764888174883</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2644383338445531</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13876.90797105366</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.07387853538900761</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>1.340309449224798e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001157717344270525</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7216744241964037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7176211391118853</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>542.3885561999938</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03656759427717407</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1480020004401151</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.01485631097516428</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.299818134212576e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001516515128250482</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5224250587664774</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.51781080812654</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>1080.904668271961</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.003262314197390193</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2738,10 +2105,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -2750,7 +2117,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -2759,27 +2126,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1217025261775082</v>
+        <v>-0.2070114500306418</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.603779235340376e-07</v>
+        <v>3.192911754249889e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006003148536676713</v>
+        <v>0.0005650585592883174</v>
       </c>
       <c r="N2" t="n">
-        <v>0.925164749728111</v>
+        <v>0.9384271602021678</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9197919625291036</v>
+        <v>0.9340065460628362</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>8.02196167591228</v>
+        <v>70.7703671165614</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -2788,22 +2155,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -2812,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.253857413463656</v>
+        <v>6472.153216354585</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2831,31 +2198,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.397312256002256</v>
+        <v>-77137.52416709741</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2874,31 +2241,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-713.2217367658792</v>
+        <v>289335.9117941535</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2917,31 +2284,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-3745.615115015652</v>
+        <v>0.1419783318220778</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2960,31 +2327,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>4166.09613174338</v>
+        <v>-1978272.443212607</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3006,10 +2373,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>-11</v>
@@ -3018,7 +2385,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -3027,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>40893.46467441558</v>
+        <v>16922153.02466102</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3046,31 +2413,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-617749.7475283574</v>
+        <v>-26585130.39438559</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3089,31 +2456,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-119513.6729479952</v>
+        <v>1.917168232069486</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3132,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -3141,7 +2508,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -3150,13 +2517,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>4283648.687280691</v>
+        <v>28529550.92549721</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3175,16 +2542,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -3199,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-13328176.75530985</v>
+        <v>-1.653052508831024</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3218,16 +2585,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -3242,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>22317719.09850986</v>
+        <v>0.8938729763031006</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3261,22 +2628,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3285,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-19642451.13108674</v>
+        <v>0.2152517251670361</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3304,22 +2671,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -3328,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>7162593.669750996</v>
+        <v>-0.2276685489341617</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3428,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -3437,7 +2804,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -3446,33 +2813,33 @@
         <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.336341644080976</v>
+        <v>-0.1267517026769729</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.798720676874915e-07</v>
+        <v>3.294332539718803e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006163376247540723</v>
+        <v>0.0005739627635760706</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9211166406146175</v>
+        <v>0.9364713386021702</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9158845810635462</v>
+        <v>0.9322577028972121</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>17.32287980275175</v>
+        <v>78.13006449491211</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -3484,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -3496,7 +2863,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -3505,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.166550804148605</v>
+        <v>0.09450911696429488</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3524,31 +2891,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1414506368072787</v>
+        <v>29344.32522752973</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3567,22 +2934,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -3591,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-37675.89007828951</v>
+        <v>-376726.4628417</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3610,31 +2977,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.266080281565805</v>
+        <v>1549475.875498857</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3653,22 +3020,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -3677,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>177731.6471557628</v>
+        <v>-16834496.9680487</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3696,22 +3063,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -3720,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-213356.3171139537</v>
+        <v>38857477.32804093</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3739,31 +3106,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>48717.42293651587</v>
+        <v>-70397817.96766701</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3782,31 +3149,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-379842.8756072399</v>
+        <v>83401843.49030076</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3825,22 +3192,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3849,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1119447.723420036</v>
+        <v>12.21834780275822</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3868,22 +3235,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -3892,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-1474014.768102455</v>
+        <v>-7.5053521245718</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3911,22 +3278,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -3935,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>730256.8799362732</v>
+        <v>0.115326963365078</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3954,10 +3321,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -3969,7 +3336,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3978,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02978325699223205</v>
+        <v>-0.1087745875120163</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4081,10 +3448,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4093,7 +3460,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -4102,27 +3469,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1419747691702952</v>
+        <v>0.05916674346182571</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.850900758485502e-07</v>
+        <v>3.369455408673327e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006205562632417387</v>
+        <v>0.0005804701033363671</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9200330810479708</v>
+        <v>0.9350226520328864</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9151619996904867</v>
+        <v>0.9310646409892043</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>19.12427735924178</v>
+        <v>83.46854397426334</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4134,10 +3501,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -4146,7 +3513,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -4155,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1192434273782467</v>
+        <v>-0.1186713597646619</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4174,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -4183,7 +3550,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -4192,13 +3559,13 @@
         <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2165989138308167</v>
+        <v>172.2859689354144</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4217,22 +3584,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -4241,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.168659158121645</v>
+        <v>-7148.526550271319</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4260,22 +3627,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -4284,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-35007.38506652478</v>
+        <v>1675469.392913994</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4303,22 +3670,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -4327,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>165931.6017917366</v>
+        <v>-7777637.884029374</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4346,31 +3713,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>42122.50327300553</v>
+        <v>62547836.23226894</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4389,22 +3756,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -4413,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-199920.4603472905</v>
+        <v>-111031362.0659474</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4432,31 +3799,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-328213.3428778853</v>
+        <v>90408424.62107356</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4475,22 +3842,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4499,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>966366.9203475121</v>
+        <v>3.122417151927948</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4518,22 +3885,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4542,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-1270931.362246318</v>
+        <v>-0.5003508701920509</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4561,22 +3928,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4585,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>628784.8476512944</v>
+        <v>0.2008618786931038</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4685,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -4709,27 +4076,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1243001121146451</v>
+        <v>0.06265423938809207</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.119975112766001e-07</v>
+        <v>3.463685424668982e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006418703227884898</v>
+        <v>0.0005885308339134816</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9144455449284264</v>
+        <v>0.9332054988743862</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9096925196466723</v>
+        <v>0.9294946932562965</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>32.56531387594526</v>
+        <v>90.40349992495796</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4738,10 +4105,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -4753,16 +4120,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.247083844717866</v>
+        <v>-0.1270418140155858</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4781,31 +4148,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06216453492460311</v>
+        <v>281.2535926532701</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4824,31 +4191,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-1564.140339711607</v>
+        <v>-1610.982697001824</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4867,31 +4234,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>5718.875619334147</v>
+        <v>63048.84701079473</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4910,31 +4277,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-5226.744446992342</v>
+        <v>-43101948.97783611</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4956,10 +4323,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>-13</v>
@@ -4968,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -4977,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-711107.3448269975</v>
+        <v>249523381.286398</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4996,22 +4363,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -5020,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>722778.7691054769</v>
+        <v>-515087767.4876988</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5039,22 +4406,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -5063,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-241823.2801586731</v>
+        <v>371973647.4283114</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5082,31 +4449,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>26678.28360804029</v>
+        <v>6.070767791566565</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5125,22 +4492,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -5149,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.187220387815168</v>
+        <v>-0.5355621915737164</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5252,10 +4619,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5264,7 +4631,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -5273,27 +4640,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1220423365407047</v>
+        <v>-0.1310253536216993</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.150596818149172e-07</v>
+        <v>3.690583804087222e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006442512567429863</v>
+        <v>0.0006075017534202862</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9138096616413401</v>
+        <v>0.928829938683062</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9094784888594979</v>
+        <v>0.925253553692261</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>33.32127141217418</v>
+        <v>108.1317568778867</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5302,13 +4669,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5317,16 +4684,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2428745305838752</v>
+        <v>0.06369613862035961</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5345,31 +4712,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06098081173297909</v>
+        <v>28.7518531264447</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5388,31 +4755,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-1520.368734105703</v>
+        <v>-121.194968556493</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5431,31 +4798,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>5581.632728505454</v>
+        <v>10303241.21346315</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5474,31 +4841,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-5120.1643685099</v>
+        <v>-99056917.4474891</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5520,10 +4887,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>-13</v>
@@ -5532,7 +4899,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -5541,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-645137.6894546153</v>
+        <v>367126322.2546833</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5560,22 +4927,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -5584,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>659322.1129521817</v>
+        <v>-617509545.8049668</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5603,22 +4970,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -5627,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-221426.2247575663</v>
+        <v>395830760.7910211</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5646,31 +5013,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>24479.70242272349</v>
+        <v>4.820189667540666</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5773,10 +5140,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5785,7 +5152,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -5794,27 +5161,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.121572626879434</v>
+        <v>-0.1276118983863177</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.206243299362575e-07</v>
+        <v>3.806768777797804e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006485555719722541</v>
+        <v>0.0006169901764046008</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9126541196182557</v>
+        <v>0.9265894011036331</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9087235550010773</v>
+        <v>0.9232859241532966</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>35.44688555680207</v>
+        <v>117.0549673491582</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5823,13 +5190,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5838,16 +5205,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2435998076371516</v>
+        <v>0.06204493662529631</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5866,31 +5233,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0606865701244646</v>
+        <v>28.34332415238822</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5909,22 +5276,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -5933,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-123926.6242593778</v>
+        <v>-120.1226310127347</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5952,22 +5319,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -5976,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>662473.0547280795</v>
+        <v>10492175.59963578</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5995,22 +5362,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -6019,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-868180.4362310594</v>
+        <v>-101136394.1516276</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6038,10 +5405,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -6053,16 +5420,16 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-1468.584622229861</v>
+        <v>375730271.6896316</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6081,10 +5448,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -6096,16 +5463,16 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>5390.819297714308</v>
+        <v>-633388725.7547374</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6124,10 +5491,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -6139,16 +5506,16 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-4943.419453780352</v>
+        <v>406868025.6970394</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6251,10 +5618,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6263,7 +5630,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -6272,27 +5639,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06318921043415619</v>
+        <v>0.06323054864689055</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.345729220650746e-07</v>
+        <v>3.586135667570863e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006592214514600345</v>
+        <v>0.0005988435244344605</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9097575870763506</v>
+        <v>0.9308441404123593</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9061658492485436</v>
+        <v>0.9280916683889706</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>42.1584985152901</v>
+        <v>98.59119791541451</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6304,10 +5671,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6316,7 +5683,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -6325,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1241320523544876</v>
+        <v>-0.1280005153202471</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6347,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6359,7 +5726,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -6368,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2437105833971379</v>
+        <v>0.2593564910405931</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6390,10 +5757,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
         <v>-15</v>
@@ -6402,7 +5769,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6411,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>17379.00802497807</v>
+        <v>-1263886.426648455</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6430,31 +5797,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.63766787226769</v>
+        <v>896462.099174219</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6473,31 +5840,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>607.8370873876354</v>
+        <v>-155686.0188703811</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6516,22 +5883,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6540,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-935.0995056444796</v>
+        <v>10.1433297671563</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6559,22 +5926,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6583,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04818767272984106</v>
+        <v>-0.1947643317931678</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6686,10 +6053,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6698,7 +6065,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -6707,27 +6074,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06190684070650202</v>
+        <v>0.063135911915015</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.366432404083565e-07</v>
+        <v>3.638988115374675e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000660789861006021</v>
+        <v>0.0006032402602093692</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9093276695335593</v>
+        <v>0.929824921732978</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9061855590718509</v>
+        <v>0.9273931120900615</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>42.45823574760798</v>
+        <v>102.3732242243897</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6739,10 +6106,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6751,7 +6118,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -6760,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1216244050678072</v>
+        <v>-0.1249306789987778</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6782,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6794,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -6803,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2388043672199532</v>
+        <v>0.249551805005161</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6822,31 +6189,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>19266.54116634445</v>
+        <v>-0.06261496946167655</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6865,22 +6232,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6889,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.55931300435658</v>
+        <v>4.541932984048766</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6908,10 +6275,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -6923,16 +6290,16 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>612.1002264547869</v>
+        <v>65438.13282161923</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6951,10 +6318,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -6966,16 +6333,16 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-945.862740596284</v>
+        <v>-151931.7027692937</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
